--- a/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -10,17 +10,13 @@
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
     <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>newloan</t>
   </si>
@@ -31,9 +27,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -43,12 +36,6 @@
     <t>heading</t>
   </si>
   <si>
-    <t>Disbursement</t>
-  </si>
-  <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -121,21 +108,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>Transaction Date</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Loan Balance</t>
-  </si>
-  <si>
     <t>152RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME</t>
   </si>
   <si>
@@ -143,6 +115,33 @@
   </si>
   <si>
     <t>actualdisbursedate</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -205,10 +204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -224,19 +224,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -246,9 +238,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -547,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,23 +555,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -585,7 +579,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42005</v>
@@ -593,7 +587,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>10000</v>
@@ -601,23 +595,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
+      <c r="A8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -625,23 +619,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -649,18 +643,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3">
-        <v>42005</v>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -671,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -687,28 +697,28 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
       <c r="B2" s="5">
@@ -718,14 +728,15 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>10000</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <v>1666.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>675</v>
       </c>
@@ -745,7 +756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -765,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -784,19 +795,6 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,7 +807,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -834,103 +832,80 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="12">
         <v>42005</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="10">
         <v>10000</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -939,19 +914,15 @@
       <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="12">
         <v>42036</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>9166.67</v>
       </c>
       <c r="H3" s="5">
@@ -973,9 +944,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
         <v>0</v>
       </c>
       <c r="P3" s="5">
@@ -989,19 +957,15 @@
       <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
         <v>833.33</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>8333.34</v>
       </c>
       <c r="H4" s="5">
@@ -1023,9 +987,6 @@
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
@@ -1039,19 +1000,15 @@
       <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>42095</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
         <v>833.33</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>7500.01</v>
       </c>
       <c r="H5" s="5">
@@ -1073,9 +1030,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
@@ -1089,19 +1043,15 @@
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>42125</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>833.33</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>6666.68</v>
       </c>
       <c r="H6" s="5">
@@ -1123,9 +1073,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
@@ -1139,19 +1086,15 @@
       <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>42156</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>833.33</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>5833.35</v>
       </c>
       <c r="H7" s="5">
@@ -1173,9 +1116,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
@@ -1189,19 +1129,15 @@
       <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>42186</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>833.33</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
@@ -1223,9 +1159,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
@@ -1239,19 +1172,15 @@
       <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="12">
         <v>42217</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>833.33</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
@@ -1273,9 +1202,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
@@ -1289,19 +1215,15 @@
       <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="12">
         <v>42248</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>833.33</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>3333.36</v>
       </c>
       <c r="H10" s="5">
@@ -1323,9 +1245,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
@@ -1339,19 +1258,15 @@
       <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>42278</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5">
         <v>833.33</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
@@ -1373,9 +1288,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
@@ -1389,19 +1301,15 @@
       <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>42309</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>833.33</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>1666.7</v>
       </c>
       <c r="H12" s="5">
@@ -1423,9 +1331,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
@@ -1439,15 +1344,11 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>42339</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>833.33</v>
       </c>
@@ -1473,9 +1374,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
@@ -1489,15 +1387,11 @@
       <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>42370</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5">
         <v>833.37</v>
       </c>
@@ -1525,88 +1419,8 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
       <c r="P14" s="5">
         <v>841.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
-        <v>42005</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -250,6 +255,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -297,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +338,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -804,10 +846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -825,12 +867,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -870,17 +913,18 @@
       <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="12">
@@ -905,9 +949,10 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -943,14 +988,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -986,14 +1032,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1029,14 +1076,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1072,14 +1120,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>908.33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1115,14 +1164,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1158,14 +1208,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>891.66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1201,14 +1252,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>883.33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1244,14 +1296,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1287,14 +1340,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>866.66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1330,14 +1384,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>858.33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1373,14 +1428,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1416,10 +1472,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>841.7</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/152-RBI-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -152,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,11 +162,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -213,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -230,9 +220,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -305,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,26 +325,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,23 +360,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,7 +560,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -723,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -739,7 +692,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -759,8 +712,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="5">
@@ -770,15 +723,14 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>10000</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1666.66</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>675</v>
       </c>
@@ -798,7 +750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -818,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -848,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -927,13 +879,13 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
       <c r="H2" s="5"/>
@@ -959,7 +911,7 @@
       <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42036</v>
       </c>
       <c r="D3" s="5"/>
@@ -967,7 +919,7 @@
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>9166.67</v>
       </c>
       <c r="H3" s="5">
@@ -1003,7 +955,7 @@
       <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>42064</v>
       </c>
       <c r="D4" s="5"/>
@@ -1011,7 +963,7 @@
       <c r="F4" s="5">
         <v>833.33</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>8333.34</v>
       </c>
       <c r="H4" s="5">
@@ -1047,7 +999,7 @@
       <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>42095</v>
       </c>
       <c r="D5" s="5"/>
@@ -1055,7 +1007,7 @@
       <c r="F5" s="5">
         <v>833.33</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>7500.01</v>
       </c>
       <c r="H5" s="5">
@@ -1091,7 +1043,7 @@
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>42125</v>
       </c>
       <c r="D6" s="5"/>
@@ -1099,7 +1051,7 @@
       <c r="F6" s="5">
         <v>833.33</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>6666.68</v>
       </c>
       <c r="H6" s="5">
@@ -1135,7 +1087,7 @@
       <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>42156</v>
       </c>
       <c r="D7" s="5"/>
@@ -1143,7 +1095,7 @@
       <c r="F7" s="5">
         <v>833.33</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>5833.35</v>
       </c>
       <c r="H7" s="5">
@@ -1179,7 +1131,7 @@
       <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>42186</v>
       </c>
       <c r="D8" s="5"/>
@@ -1187,7 +1139,7 @@
       <c r="F8" s="5">
         <v>833.33</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
@@ -1223,7 +1175,7 @@
       <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>42217</v>
       </c>
       <c r="D9" s="5"/>
@@ -1231,7 +1183,7 @@
       <c r="F9" s="5">
         <v>833.33</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
@@ -1267,7 +1219,7 @@
       <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>42248</v>
       </c>
       <c r="D10" s="5"/>
@@ -1275,7 +1227,7 @@
       <c r="F10" s="5">
         <v>833.33</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>3333.36</v>
       </c>
       <c r="H10" s="5">
@@ -1311,7 +1263,7 @@
       <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>42278</v>
       </c>
       <c r="D11" s="5"/>
@@ -1319,7 +1271,7 @@
       <c r="F11" s="5">
         <v>833.33</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
@@ -1355,7 +1307,7 @@
       <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>42309</v>
       </c>
       <c r="D12" s="5"/>
@@ -1363,7 +1315,7 @@
       <c r="F12" s="5">
         <v>833.33</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>1666.7</v>
       </c>
       <c r="H12" s="5">
@@ -1399,7 +1351,7 @@
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>42339</v>
       </c>
       <c r="D13" s="5"/>
@@ -1443,7 +1395,7 @@
       <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>42370</v>
       </c>
       <c r="D14" s="5"/>
